--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-Esdms\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BAA9EF-1AAB-437A-B47F-BF0C45A47491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACF487-8CB8-424F-97C0-C66467A19DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="474">
   <si>
     <t>Controller</t>
   </si>
@@ -1766,18 +1766,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>專案類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActivityCategoryController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="ActivityCategory", Name = "專案類型", MenuPath = "專案資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>職稱代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1786,30 +1778,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="Category", Name = "職稱代碼", MenuPath = "代碼維護", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>縣市代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="City", Name = "縣市代碼", MenuPath = "代碼維護", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CityController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExpertiseDetailController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專業代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>證照代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,14 +1794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="ExpertiseDetail", Name = "專業代碼", MenuPath = "專業項目", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="License", Name = "證照代碼", MenuPath = "專業項目", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1842,14 +1810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="Project", Name = "專案", MenuPath = "專案資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="ProjectUnit", Name = "專案單位", MenuPath = "專案資料", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鄉鎮代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1858,79 +1818,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="Town", Name = "鄉鎮代碼", MenuPath = "代碼維護", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專家個資</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專家專長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專家參與紀錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專家經歷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>專家意見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>專家基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="BasicUser", Name = "專家基本資料", MenuPath = "專家資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="BasicUser_Private", Name = "專家個資", MenuPath = "專家資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="Expertise", Name = "專家專長", MenuPath = "專家資料", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="FTISUserHistory", Name = "專家參與紀錄", MenuPath = "專家資料", Action = "Index", Index = 4, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="Resume", Name = "專家經歷", MenuPath = "專家資料", Action = "Index", Index = 5, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="UserHistoryOpinion", Name = "專家意見", MenuPath = "專家資料", Action = "Index", Index = 6, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicUserController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicUser_PrivateController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpertiseController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTISUserHistoryController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResumeController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserHistoryOpinionController</t>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "City", Name = "縣市代碼", MenuPath = "代碼維護", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Town", Name = "鄉鎮代碼", MenuPath = "代碼維護", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Category", Name = "職稱代碼", MenuPath = "代碼維護", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "License", Name = "證照代碼", MenuPath = "代碼維護", Action = "Index", Index = 4, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "SubjectDetail", Name = "科目代碼", MenuPath = "專業項目", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Subject", Name = "科目類別代碼", MenuPath = "專業項目", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目類別代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "ActivityCategory", Name = "會議", MenuPath = "專案資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Project", Name = "專案", MenuPath = "專案資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "ProjectUnit", Name = "專案單位", MenuPath = "專案資料", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectDetailController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "BasicUser", Name = "專家基本資料", MenuPath = "專家資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,6 +2118,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2184,39 +2159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2516,7 +2463,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2526,7 +2473,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
@@ -2536,7 +2483,7 @@
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
@@ -2546,7 +2493,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
@@ -2556,7 +2503,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
@@ -2566,7 +2513,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
@@ -2576,7 +2523,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
@@ -2586,7 +2533,7 @@
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
@@ -2596,7 +2543,7 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2553,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12" t="s">
         <v>109</v>
       </c>
@@ -2616,7 +2563,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="12" t="s">
         <v>110</v>
       </c>
@@ -2626,17 +2573,17 @@
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
@@ -2655,7 +2602,7 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
@@ -2668,7 +2615,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="6" t="s">
         <v>136</v>
       </c>
@@ -2677,7 +2624,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="30"/>
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -2686,7 +2633,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="30"/>
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -2695,7 +2642,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="30"/>
       <c r="B22" t="s">
         <v>153</v>
       </c>
@@ -2704,7 +2651,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -2715,7 +2662,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="30"/>
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -2724,7 +2671,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="30"/>
       <c r="B25" t="s">
         <v>162</v>
       </c>
@@ -2733,7 +2680,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="30"/>
       <c r="B26" t="s">
         <v>163</v>
       </c>
@@ -2742,7 +2689,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2753,7 +2700,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>199</v>
       </c>
@@ -2762,7 +2709,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -2771,7 +2718,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>201</v>
       </c>
@@ -2780,7 +2727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -2791,7 +2738,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" t="s">
         <v>236</v>
       </c>
@@ -2800,7 +2747,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" t="s">
         <v>237</v>
       </c>
@@ -2809,7 +2756,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" t="s">
         <v>238</v>
       </c>
@@ -2818,7 +2765,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
@@ -2829,7 +2776,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" t="s">
         <v>263</v>
       </c>
@@ -2838,7 +2785,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="25"/>
       <c r="B37" t="s">
         <v>264</v>
       </c>
@@ -2847,7 +2794,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -2856,7 +2803,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" t="s">
         <v>266</v>
       </c>
@@ -2865,7 +2812,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
@@ -2876,7 +2823,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" t="s">
         <v>288</v>
       </c>
@@ -2885,7 +2832,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" t="s">
         <v>289</v>
       </c>
@@ -2894,7 +2841,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
@@ -2905,7 +2852,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" t="s">
         <v>338</v>
       </c>
@@ -2914,7 +2861,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" t="s">
         <v>339</v>
       </c>
@@ -2923,7 +2870,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="25"/>
       <c r="B46" t="s">
         <v>377</v>
       </c>
@@ -2932,7 +2879,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" t="s">
         <v>340</v>
       </c>
@@ -2941,7 +2888,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" t="s">
         <v>341</v>
       </c>
@@ -2950,7 +2897,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
@@ -2961,7 +2908,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" t="s">
         <v>385</v>
       </c>
@@ -2970,7 +2917,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" t="s">
         <v>400</v>
       </c>
@@ -2979,7 +2926,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
@@ -2990,7 +2937,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" t="s">
         <v>409</v>
       </c>
@@ -2999,7 +2946,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" t="s">
         <v>410</v>
       </c>
@@ -3008,7 +2955,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" t="s">
         <v>411</v>
       </c>
@@ -3017,7 +2964,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" t="s">
         <v>412</v>
       </c>
@@ -3032,10 +2979,10 @@
       <c r="A58" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="25"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
@@ -3060,10 +3007,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3077,8 +3024,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
@@ -3090,8 +3037,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3050,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="25" t="s">
         <v>168</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3118,8 +3065,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="6" t="s">
         <v>114</v>
       </c>
@@ -3131,8 +3078,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
@@ -3144,8 +3091,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="6" t="s">
         <v>116</v>
       </c>
@@ -3157,8 +3104,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
@@ -3170,8 +3117,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="6" t="s">
         <v>16</v>
       </c>
@@ -3183,8 +3130,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="6" t="s">
         <v>17</v>
       </c>
@@ -3196,8 +3143,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
@@ -3209,8 +3156,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
@@ -3222,8 +3169,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
       </c>
@@ -3235,8 +3182,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="25" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3250,8 +3197,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
@@ -3263,8 +3210,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="6" t="s">
         <v>11</v>
       </c>
@@ -3276,8 +3223,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="6" t="s">
         <v>12</v>
       </c>
@@ -3289,7 +3236,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="15" t="s">
         <v>170</v>
       </c>
@@ -3304,10 +3251,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3321,8 +3268,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
@@ -3334,8 +3281,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="6" t="s">
         <v>8</v>
       </c>
@@ -3347,8 +3294,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="22" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3362,8 +3309,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
@@ -3375,8 +3322,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="6" t="s">
         <v>115</v>
       </c>
@@ -3388,8 +3335,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="6" t="s">
         <v>116</v>
       </c>
@@ -3401,8 +3348,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="6" t="s">
         <v>21</v>
       </c>
@@ -3414,8 +3361,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="6" t="s">
         <v>22</v>
       </c>
@@ -3427,8 +3374,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="6" t="s">
         <v>23</v>
       </c>
@@ -3440,8 +3387,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="6" t="s">
         <v>17</v>
       </c>
@@ -3453,8 +3400,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="6" t="s">
         <v>24</v>
       </c>
@@ -3466,7 +3413,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="15" t="s">
         <v>163</v>
       </c>
@@ -3481,10 +3428,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -3498,8 +3445,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="29"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="6" t="s">
         <v>33</v>
       </c>
@@ -3511,8 +3458,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
-      <c r="B95" s="29"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
@@ -3524,8 +3471,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
-      <c r="B96" s="29" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -3539,8 +3486,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="6" t="s">
         <v>114</v>
       </c>
@@ -3552,8 +3499,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="6" t="s">
         <v>115</v>
       </c>
@@ -3565,8 +3512,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="6" t="s">
         <v>116</v>
       </c>
@@ -3578,8 +3525,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="6" t="s">
         <v>34</v>
       </c>
@@ -3591,8 +3538,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="6" t="s">
         <v>35</v>
       </c>
@@ -3604,8 +3551,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="6" t="s">
         <v>36</v>
       </c>
@@ -3617,8 +3564,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="26"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="6" t="s">
         <v>17</v>
       </c>
@@ -3630,8 +3577,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26"/>
-      <c r="B104" s="29"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="6" t="s">
         <v>37</v>
       </c>
@@ -3643,7 +3590,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="26"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="8" t="s">
         <v>201</v>
       </c>
@@ -3658,10 +3605,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3675,8 +3622,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="26"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="6" t="s">
         <v>41</v>
       </c>
@@ -3688,8 +3635,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="26"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
@@ -3701,7 +3648,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="8" t="s">
         <v>236</v>
       </c>
@@ -3716,8 +3663,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="26"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="17" t="s">
         <v>237</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -3731,8 +3678,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="6" t="s">
         <v>40</v>
       </c>
@@ -3744,8 +3691,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="26"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="6" t="s">
         <v>42</v>
       </c>
@@ -3757,7 +3704,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="8" t="s">
         <v>238</v>
       </c>
@@ -3772,7 +3719,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="18" t="s">
         <v>272</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3789,7 +3736,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="26"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="8" t="s">
         <v>263</v>
       </c>
@@ -3804,7 +3751,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="26"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="8" t="s">
         <v>264</v>
       </c>
@@ -3819,8 +3766,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="26"/>
-      <c r="B117" s="29" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="17" t="s">
         <v>265</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -3834,8 +3781,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="6" t="s">
         <v>46</v>
       </c>
@@ -3847,7 +3794,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="26"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="8" t="s">
         <v>266</v>
       </c>
@@ -3862,7 +3809,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="18" t="s">
         <v>293</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3879,8 +3826,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="22" t="s">
         <v>288</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -3894,8 +3841,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="26"/>
-      <c r="B122" s="28"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="6" t="s">
         <v>49</v>
       </c>
@@ -3907,7 +3854,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="8" t="s">
         <v>289</v>
       </c>
@@ -3922,10 +3869,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="17" t="s">
         <v>371</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -3939,8 +3886,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="B125" s="29"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="6" t="s">
         <v>52</v>
       </c>
@@ -3952,8 +3899,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
-      <c r="B126" s="29"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="6" t="s">
         <v>53</v>
       </c>
@@ -3965,8 +3912,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
-      <c r="B127" s="29"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="6" t="s">
         <v>54</v>
       </c>
@@ -3978,8 +3925,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
-      <c r="B128" s="29" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="17" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -3993,8 +3940,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="26"/>
-      <c r="B129" s="29"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="6" t="s">
         <v>55</v>
       </c>
@@ -4006,8 +3953,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="26"/>
-      <c r="B130" s="29" t="s">
+      <c r="A130" s="18"/>
+      <c r="B130" s="17" t="s">
         <v>339</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4021,8 +3968,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="26"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="6" t="s">
         <v>57</v>
       </c>
@@ -4034,8 +3981,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="26"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="6" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +3994,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="26"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="6" t="s">
         <v>59</v>
       </c>
@@ -4060,8 +4007,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="26"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="6" t="s">
         <v>60</v>
       </c>
@@ -4073,8 +4020,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="6" t="s">
         <v>61</v>
       </c>
@@ -4086,8 +4033,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="B136" s="29"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="6" t="s">
         <v>62</v>
       </c>
@@ -4099,8 +4046,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
-      <c r="B137" s="29"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="6" t="s">
         <v>63</v>
       </c>
@@ -4112,8 +4059,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="29" t="s">
+      <c r="A138" s="18"/>
+      <c r="B138" s="17" t="s">
         <v>377</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4127,8 +4074,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="6" t="s">
         <v>65</v>
       </c>
@@ -4140,8 +4087,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="6" t="s">
         <v>66</v>
       </c>
@@ -4153,8 +4100,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="26"/>
-      <c r="B141" s="29"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="6" t="s">
         <v>67</v>
       </c>
@@ -4166,8 +4113,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="26"/>
-      <c r="B142" s="29"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="6" t="s">
         <v>68</v>
       </c>
@@ -4179,8 +4126,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="26"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="6" t="s">
         <v>69</v>
       </c>
@@ -4192,8 +4139,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
-      <c r="B144" s="29" t="s">
+      <c r="A144" s="18"/>
+      <c r="B144" s="17" t="s">
         <v>340</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -4207,8 +4154,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
-      <c r="B145" s="29"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="6" t="s">
         <v>71</v>
       </c>
@@ -4220,8 +4167,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="B146" s="29"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="6" t="s">
         <v>72</v>
       </c>
@@ -4233,8 +4180,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="6" t="s">
         <v>73</v>
       </c>
@@ -4246,8 +4193,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="6" t="s">
         <v>74</v>
       </c>
@@ -4259,8 +4206,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26"/>
-      <c r="B149" s="29"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="6" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4219,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
-      <c r="B150" s="29"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="6" t="s">
         <v>76</v>
       </c>
@@ -4285,8 +4232,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
-      <c r="B151" s="29"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="6" t="s">
         <v>77</v>
       </c>
@@ -4298,8 +4245,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
-      <c r="B152" s="29"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="6" t="s">
         <v>78</v>
       </c>
@@ -4311,8 +4258,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
-      <c r="B153" s="29"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="6" t="s">
         <v>79</v>
       </c>
@@ -4324,8 +4271,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="26"/>
-      <c r="B154" s="29"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="6" t="s">
         <v>80</v>
       </c>
@@ -4337,8 +4284,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="26"/>
-      <c r="B155" s="29"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="6" t="s">
         <v>81</v>
       </c>
@@ -4350,8 +4297,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="26"/>
-      <c r="B156" s="29"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="6" t="s">
         <v>82</v>
       </c>
@@ -4363,8 +4310,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
-      <c r="B157" s="29"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="17"/>
       <c r="C157" s="6" t="s">
         <v>83</v>
       </c>
@@ -4376,7 +4323,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="8" t="s">
         <v>341</v>
       </c>
@@ -4391,10 +4338,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="22" t="s">
         <v>393</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -4408,8 +4355,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="34"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4421,8 +4368,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="33"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="6" t="s">
         <v>433</v>
       </c>
@@ -4434,55 +4381,55 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="29" t="s">
+      <c r="A162" s="18"/>
+      <c r="B162" s="17" t="s">
         <v>385</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D162" s="32" t="s">
+      <c r="D162" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="E162" s="31" t="s">
+      <c r="E162" s="19" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D163" s="33"/>
-      <c r="E163" s="31"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
-      <c r="B164" s="29" t="s">
+      <c r="A164" s="18"/>
+      <c r="B164" s="17" t="s">
         <v>398</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="19" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D165" s="33"/>
-      <c r="E165" s="31"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="26" t="s">
+      <c r="A166" s="18" t="s">
         <v>418</v>
       </c>
       <c r="B166" s="8" t="s">
@@ -4499,7 +4446,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="8" t="s">
         <v>409</v>
       </c>
@@ -4514,8 +4461,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="29" t="s">
+      <c r="A168" s="18"/>
+      <c r="B168" s="17" t="s">
         <v>410</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4529,8 +4476,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="29"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="17"/>
       <c r="C169" s="6" t="s">
         <v>404</v>
       </c>
@@ -4542,8 +4489,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="29" t="s">
+      <c r="A170" s="18"/>
+      <c r="B170" s="17" t="s">
         <v>411</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -4557,8 +4504,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="29"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="17"/>
       <c r="C171" s="6" t="s">
         <v>406</v>
       </c>
@@ -4570,7 +4517,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="8" t="s">
         <v>412</v>
       </c>
@@ -4586,36 +4533,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A166:A172"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A124:A158"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A93:A105"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A62:A79"/>
     <mergeCell ref="A18:A22"/>
@@ -4632,6 +4549,36 @@
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="A124:A158"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A166:A172"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4641,10 +4588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C17E72-64B0-4803-A215-769D5DDAD34F}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4720,35 +4667,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" t="s">
         <v>473</v>
       </c>
-      <c r="B14" t="s">
-        <v>480</v>
-      </c>
-      <c r="C14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>469</v>
-      </c>
-      <c r="B16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C16" t="s">
-        <v>476</v>
+      <c r="A16" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4756,37 +4692,37 @@
         <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>0</v>
@@ -4797,112 +4733,79 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C23" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" t="s">
-        <v>464</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>1</v>
+      <c r="A26" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B27" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B31" t="s">
-        <v>448</v>
-      </c>
-      <c r="C31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B29" t="s">
         <v>450</v>
       </c>
-      <c r="B32" t="s">
-        <v>452</v>
-      </c>
-      <c r="C32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" t="s">
-        <v>467</v>
+      <c r="C29" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACF487-8CB8-424F-97C0-C66467A19DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FC078-6215-494C-BCB2-F5A79803EF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1802,14 +1791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>專案單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectUnitController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鄉鎮代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1862,9 +1843,6 @@
     <t>[Dou.Misc.Attr.MenuDef(Id = "Project", Name = "專案", MenuPath = "專案資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id = "ProjectUnit", Name = "專案單位", MenuPath = "專案資料", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-  </si>
-  <si>
     <t>會議</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,6 +1856,18 @@
   </si>
   <si>
     <t>[Dou.Misc.Attr.MenuDef(Id = "BasicUser", Name = "專家基本資料", MenuPath = "專家資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectCostCodeController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "ProjectCostCode", Name = "專案費用科目代碼", MenuPath = "專案資料", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案費用科目代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4590,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C17E72-64B0-4803-A215-769D5DDAD34F}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4667,13 +4657,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4689,13 +4679,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
         <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4706,18 +4696,18 @@
         <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4733,24 +4723,24 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4772,18 +4762,18 @@
         <v>448</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4794,7 +4784,7 @@
         <v>446</v>
       </c>
       <c r="C28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4805,11 +4795,12 @@
         <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FC078-6215-494C-BCB2-F5A79803EF23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB49D9C-CCA2-49A7-89D3-ACBC1723BE64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="479">
   <si>
     <t>Controller</t>
   </si>
@@ -1727,18 +1727,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Name": "專家資料","MenuPath": "","Index": 1,"IsOnlyPath": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>專案資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Name": "專案資料","MenuPath": "","Index": 2,"IsOnlyPath": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>專業項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1747,14 +1739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Name": "專業項目","MenuPath": "","Index": 3,"IsOnlyPath": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Name": "代碼維護","MenuPath": "","Index": 4,"IsOnlyPath": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActivityCategoryController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,6 +1852,42 @@
   </si>
   <si>
     <t>專案費用科目代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectInvoiceController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專家請款明細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫請款(專家)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "ProjectInvoice", Name = "專家請款明細", MenuPath = "計畫請款(專家)", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "計畫請款(專家)","MenuPath": "","Index": 1,"IsOnlyPath": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "專家資料","MenuPath": "","Index": 2,"IsOnlyPath": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "專案資料","MenuPath": "","Index": 3,"IsOnlyPath": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "專業項目","MenuPath": "","Index": 4,"IsOnlyPath": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "代碼維護","MenuPath": "","Index": 5,"IsOnlyPath": true}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2108,34 +2128,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2149,11 +2143,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2453,7 +2475,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2463,7 +2485,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
@@ -2473,7 +2495,7 @@
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
@@ -2483,7 +2505,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
@@ -2493,7 +2515,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
@@ -2503,7 +2525,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
@@ -2513,7 +2535,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
@@ -2523,7 +2545,7 @@
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
@@ -2533,7 +2555,7 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
@@ -2543,7 +2565,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="12" t="s">
         <v>109</v>
       </c>
@@ -2553,7 +2575,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
         <v>110</v>
       </c>
@@ -2563,17 +2585,17 @@
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
@@ -2592,7 +2614,7 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
@@ -2605,7 +2627,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>136</v>
       </c>
@@ -2614,7 +2636,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="22"/>
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -2623,7 +2645,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -2632,7 +2654,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="22"/>
       <c r="B22" t="s">
         <v>153</v>
       </c>
@@ -2641,7 +2663,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -2652,7 +2674,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="22"/>
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -2661,7 +2683,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>162</v>
       </c>
@@ -2670,7 +2692,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>163</v>
       </c>
@@ -2679,7 +2701,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2690,7 +2712,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="25"/>
       <c r="B28" t="s">
         <v>199</v>
       </c>
@@ -2699,7 +2721,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="25"/>
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -2708,7 +2730,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="25"/>
       <c r="B30" t="s">
         <v>201</v>
       </c>
@@ -2717,7 +2739,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -2728,7 +2750,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>236</v>
       </c>
@@ -2737,7 +2759,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" t="s">
         <v>237</v>
       </c>
@@ -2746,7 +2768,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>238</v>
       </c>
@@ -2755,7 +2777,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
@@ -2766,7 +2788,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>263</v>
       </c>
@@ -2775,7 +2797,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
         <v>264</v>
       </c>
@@ -2784,7 +2806,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -2793,7 +2815,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>266</v>
       </c>
@@ -2802,7 +2824,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
@@ -2813,7 +2835,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" t="s">
         <v>288</v>
       </c>
@@ -2822,7 +2844,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" t="s">
         <v>289</v>
       </c>
@@ -2831,7 +2853,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
@@ -2842,7 +2864,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>338</v>
       </c>
@@ -2851,7 +2873,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" t="s">
         <v>339</v>
       </c>
@@ -2860,7 +2882,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+      <c r="A46" s="24"/>
       <c r="B46" t="s">
         <v>377</v>
       </c>
@@ -2869,7 +2891,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" t="s">
         <v>340</v>
       </c>
@@ -2878,7 +2900,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="24"/>
       <c r="B48" t="s">
         <v>341</v>
       </c>
@@ -2887,7 +2909,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
@@ -2898,7 +2920,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="24"/>
       <c r="B50" t="s">
         <v>385</v>
       </c>
@@ -2907,7 +2929,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="24"/>
       <c r="B51" t="s">
         <v>400</v>
       </c>
@@ -2916,7 +2938,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
@@ -2927,7 +2949,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" t="s">
         <v>409</v>
       </c>
@@ -2936,7 +2958,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="24"/>
       <c r="B54" t="s">
         <v>410</v>
       </c>
@@ -2945,7 +2967,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="24"/>
       <c r="B55" t="s">
         <v>411</v>
       </c>
@@ -2954,7 +2976,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="24"/>
       <c r="B56" t="s">
         <v>412</v>
       </c>
@@ -2969,10 +2991,10 @@
       <c r="A58" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
@@ -2997,10 +3019,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3014,8 +3036,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
@@ -3027,8 +3049,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
@@ -3040,8 +3062,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3055,8 +3077,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="6" t="s">
         <v>114</v>
       </c>
@@ -3068,8 +3090,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
@@ -3081,8 +3103,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="6" t="s">
         <v>116</v>
       </c>
@@ -3094,8 +3116,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
@@ -3107,8 +3129,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="6" t="s">
         <v>16</v>
       </c>
@@ -3120,8 +3142,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="6" t="s">
         <v>17</v>
       </c>
@@ -3133,8 +3155,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
@@ -3146,8 +3168,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
@@ -3159,8 +3181,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
       </c>
@@ -3172,8 +3194,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="25" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="24" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3187,8 +3209,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
@@ -3200,8 +3222,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="6" t="s">
         <v>11</v>
       </c>
@@ -3213,8 +3235,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="6" t="s">
         <v>12</v>
       </c>
@@ -3226,7 +3248,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="15" t="s">
         <v>170</v>
       </c>
@@ -3241,10 +3263,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="24" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3258,8 +3280,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
@@ -3271,8 +3293,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="6" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +3306,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="24" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3299,8 +3321,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
@@ -3312,8 +3334,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="6" t="s">
         <v>115</v>
       </c>
@@ -3325,8 +3347,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="25"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="6" t="s">
         <v>116</v>
       </c>
@@ -3338,8 +3360,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="25"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="6" t="s">
         <v>21</v>
       </c>
@@ -3351,8 +3373,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="6" t="s">
         <v>22</v>
       </c>
@@ -3364,8 +3386,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="6" t="s">
         <v>23</v>
       </c>
@@ -3377,8 +3399,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="6" t="s">
         <v>17</v>
       </c>
@@ -3390,8 +3412,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="6" t="s">
         <v>24</v>
       </c>
@@ -3403,7 +3425,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="15" t="s">
         <v>163</v>
       </c>
@@ -3418,10 +3440,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="32" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -3435,8 +3457,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="18"/>
-      <c r="B94" s="17"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="6" t="s">
         <v>33</v>
       </c>
@@ -3448,8 +3470,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="18"/>
-      <c r="B95" s="17"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
@@ -3461,8 +3483,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18"/>
-      <c r="B96" s="17" t="s">
+      <c r="A96" s="28"/>
+      <c r="B96" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -3476,8 +3498,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="18"/>
-      <c r="B97" s="17"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="6" t="s">
         <v>114</v>
       </c>
@@ -3489,8 +3511,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18"/>
-      <c r="B98" s="17"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="6" t="s">
         <v>115</v>
       </c>
@@ -3502,8 +3524,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="18"/>
-      <c r="B99" s="17"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="6" t="s">
         <v>116</v>
       </c>
@@ -3515,8 +3537,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="18"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="6" t="s">
         <v>34</v>
       </c>
@@ -3528,8 +3550,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="18"/>
-      <c r="B101" s="17"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="6" t="s">
         <v>35</v>
       </c>
@@ -3541,8 +3563,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
-      <c r="B102" s="17"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="6" t="s">
         <v>36</v>
       </c>
@@ -3554,8 +3576,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
-      <c r="B103" s="17"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="6" t="s">
         <v>17</v>
       </c>
@@ -3567,8 +3589,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="6" t="s">
         <v>37</v>
       </c>
@@ -3580,7 +3602,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="8" t="s">
         <v>201</v>
       </c>
@@ -3595,10 +3617,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="31" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3612,8 +3634,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
-      <c r="B107" s="17"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="6" t="s">
         <v>41</v>
       </c>
@@ -3625,8 +3647,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="18"/>
-      <c r="B108" s="17"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3660,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="8" t="s">
         <v>236</v>
       </c>
@@ -3653,8 +3675,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="18"/>
-      <c r="B110" s="17" t="s">
+      <c r="A110" s="28"/>
+      <c r="B110" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -3668,8 +3690,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="18"/>
-      <c r="B111" s="17"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="6" t="s">
         <v>40</v>
       </c>
@@ -3681,8 +3703,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18"/>
-      <c r="B112" s="17"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="6" t="s">
         <v>42</v>
       </c>
@@ -3694,7 +3716,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="8" t="s">
         <v>238</v>
       </c>
@@ -3709,7 +3731,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3726,7 +3748,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="8" t="s">
         <v>263</v>
       </c>
@@ -3741,7 +3763,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="8" t="s">
         <v>264</v>
       </c>
@@ -3756,8 +3778,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
-      <c r="B117" s="17" t="s">
+      <c r="A117" s="28"/>
+      <c r="B117" s="31" t="s">
         <v>265</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -3771,8 +3793,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18"/>
-      <c r="B118" s="17"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="6" t="s">
         <v>46</v>
       </c>
@@ -3784,7 +3806,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="8" t="s">
         <v>266</v>
       </c>
@@ -3799,7 +3821,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="28" t="s">
         <v>293</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3816,8 +3838,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
-      <c r="B121" s="22" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29" t="s">
         <v>288</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -3831,8 +3853,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="6" t="s">
         <v>49</v>
       </c>
@@ -3844,7 +3866,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="8" t="s">
         <v>289</v>
       </c>
@@ -3859,10 +3881,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="31" t="s">
         <v>371</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -3876,8 +3898,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="17"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="6" t="s">
         <v>52</v>
       </c>
@@ -3889,8 +3911,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
-      <c r="B126" s="17"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="6" t="s">
         <v>53</v>
       </c>
@@ -3902,8 +3924,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="17"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="6" t="s">
         <v>54</v>
       </c>
@@ -3915,8 +3937,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="17" t="s">
+      <c r="A128" s="28"/>
+      <c r="B128" s="31" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -3930,8 +3952,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="17"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="6" t="s">
         <v>55</v>
       </c>
@@ -3943,8 +3965,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
-      <c r="B130" s="17" t="s">
+      <c r="A130" s="28"/>
+      <c r="B130" s="31" t="s">
         <v>339</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -3958,8 +3980,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
-      <c r="B131" s="17"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="6" t="s">
         <v>57</v>
       </c>
@@ -3971,8 +3993,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
-      <c r="B132" s="17"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="6" t="s">
         <v>58</v>
       </c>
@@ -3984,8 +4006,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="17"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="6" t="s">
         <v>59</v>
       </c>
@@ -3997,8 +4019,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="17"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="6" t="s">
         <v>60</v>
       </c>
@@ -4010,8 +4032,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="17"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="6" t="s">
         <v>61</v>
       </c>
@@ -4023,8 +4045,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-      <c r="B136" s="17"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="6" t="s">
         <v>62</v>
       </c>
@@ -4036,8 +4058,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="17"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="6" t="s">
         <v>63</v>
       </c>
@@ -4049,8 +4071,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
-      <c r="B138" s="17" t="s">
+      <c r="A138" s="28"/>
+      <c r="B138" s="31" t="s">
         <v>377</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4064,8 +4086,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
-      <c r="B139" s="17"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="6" t="s">
         <v>65</v>
       </c>
@@ -4077,8 +4099,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18"/>
-      <c r="B140" s="17"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="6" t="s">
         <v>66</v>
       </c>
@@ -4090,8 +4112,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
-      <c r="B141" s="17"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="6" t="s">
         <v>67</v>
       </c>
@@ -4103,8 +4125,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="18"/>
-      <c r="B142" s="17"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="6" t="s">
         <v>68</v>
       </c>
@@ -4116,8 +4138,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="18"/>
-      <c r="B143" s="17"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="6" t="s">
         <v>69</v>
       </c>
@@ -4129,8 +4151,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18"/>
-      <c r="B144" s="17" t="s">
+      <c r="A144" s="28"/>
+      <c r="B144" s="31" t="s">
         <v>340</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -4144,8 +4166,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="18"/>
-      <c r="B145" s="17"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="6" t="s">
         <v>71</v>
       </c>
@@ -4157,8 +4179,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
-      <c r="B146" s="17"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="6" t="s">
         <v>72</v>
       </c>
@@ -4170,8 +4192,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
-      <c r="B147" s="17"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="6" t="s">
         <v>73</v>
       </c>
@@ -4183,8 +4205,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18"/>
-      <c r="B148" s="17"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="6" t="s">
         <v>74</v>
       </c>
@@ -4196,8 +4218,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="18"/>
-      <c r="B149" s="17"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="6" t="s">
         <v>75</v>
       </c>
@@ -4209,8 +4231,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="18"/>
-      <c r="B150" s="17"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="6" t="s">
         <v>76</v>
       </c>
@@ -4222,8 +4244,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="18"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="6" t="s">
         <v>77</v>
       </c>
@@ -4235,8 +4257,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="18"/>
-      <c r="B152" s="17"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="6" t="s">
         <v>78</v>
       </c>
@@ -4248,8 +4270,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="18"/>
-      <c r="B153" s="17"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="6" t="s">
         <v>79</v>
       </c>
@@ -4261,8 +4283,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="18"/>
-      <c r="B154" s="17"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="6" t="s">
         <v>80</v>
       </c>
@@ -4274,8 +4296,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
-      <c r="B155" s="17"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="6" t="s">
         <v>81</v>
       </c>
@@ -4287,8 +4309,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
-      <c r="B156" s="17"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="6" t="s">
         <v>82</v>
       </c>
@@ -4300,8 +4322,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="18"/>
-      <c r="B157" s="17"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="6" t="s">
         <v>83</v>
       </c>
@@ -4313,7 +4335,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="18"/>
+      <c r="A158" s="28"/>
       <c r="B158" s="8" t="s">
         <v>341</v>
       </c>
@@ -4328,10 +4350,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="29" t="s">
         <v>393</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -4345,8 +4367,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18"/>
-      <c r="B160" s="23"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4358,8 +4380,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="18"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="6" t="s">
         <v>433</v>
       </c>
@@ -4371,55 +4393,55 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="18"/>
-      <c r="B162" s="17" t="s">
+      <c r="A162" s="28"/>
+      <c r="B162" s="31" t="s">
         <v>385</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D162" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="E162" s="19" t="s">
+      <c r="E162" s="33" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="18"/>
-      <c r="B163" s="17"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D163" s="21"/>
-      <c r="E163" s="19"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="33"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="18"/>
-      <c r="B164" s="17" t="s">
+      <c r="A164" s="28"/>
+      <c r="B164" s="31" t="s">
         <v>398</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D164" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="33" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="18"/>
-      <c r="B165" s="17"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="19"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="33"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="28" t="s">
         <v>418</v>
       </c>
       <c r="B166" s="8" t="s">
@@ -4436,7 +4458,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="8" t="s">
         <v>409</v>
       </c>
@@ -4451,8 +4473,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="18"/>
-      <c r="B168" s="17" t="s">
+      <c r="A168" s="28"/>
+      <c r="B168" s="31" t="s">
         <v>410</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4466,8 +4488,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="18"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="6" t="s">
         <v>404</v>
       </c>
@@ -4479,8 +4501,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="18"/>
-      <c r="B170" s="17" t="s">
+      <c r="A170" s="28"/>
+      <c r="B170" s="31" t="s">
         <v>411</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -4494,8 +4516,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="18"/>
-      <c r="B171" s="17"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="6" t="s">
         <v>406</v>
       </c>
@@ -4507,7 +4529,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="18"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="8" t="s">
         <v>412</v>
       </c>
@@ -4523,6 +4545,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A166:A172"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A124:A158"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A93:A105"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A62:A79"/>
     <mergeCell ref="A18:A22"/>
@@ -4539,36 +4591,6 @@
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A93:A105"/>
-    <mergeCell ref="A124:A158"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A166:A172"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4578,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C17E72-64B0-4803-A215-769D5DDAD34F}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4607,126 +4629,124 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>436</v>
+    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>440</v>
+      <c r="A5" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" t="s">
         <v>452</v>
-      </c>
-      <c r="B18" t="s">
-        <v>451</v>
       </c>
       <c r="C18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>473</v>
-      </c>
-      <c r="B19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C19" t="s">
-        <v>472</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" t="s">
         <v>440</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
         <v>462</v>
@@ -4734,18 +4754,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>0</v>
@@ -4756,46 +4776,101 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>460</v>
+      </c>
+      <c r="B27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" t="s">
         <v>453</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" t="s">
         <v>454</v>
       </c>
-      <c r="C27" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>445</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>446</v>
       </c>
-      <c r="C28" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>449</v>
-      </c>
-      <c r="B29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C29" t="s">
-        <v>460</v>
+      <c r="C33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB49D9C-CCA2-49A7-89D3-ACBC1723BE64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD87B00-24AD-4BED-A421-C6BCC8C2B7C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="482">
   <si>
     <t>Controller</t>
   </si>
@@ -1871,10 +1871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Name": "計畫請款(專家)","MenuPath": "","Index": 1,"IsOnlyPath": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Name": "專家資料","MenuPath": "","Index": 2,"IsOnlyPath": true}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1888,6 +1884,22 @@
   </si>
   <si>
     <t>{"Name": "代碼維護","MenuPath": "","Index": 5,"IsOnlyPath": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "ProjectInvoice", Name = "專家請款單", MenuPath = "請款", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專家請款單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Name": "請款","MenuPath": "","Index": 1,"IsOnlyPath": true}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2130,6 +2142,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2143,39 +2183,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2475,7 +2487,7 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2485,7 +2497,7 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
         <v>112</v>
       </c>
@@ -2495,7 +2507,7 @@
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
@@ -2505,7 +2517,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
@@ -2515,7 +2527,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
@@ -2525,7 +2537,7 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +2547,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
@@ -2545,7 +2557,7 @@
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="12" t="s">
         <v>106</v>
       </c>
@@ -2555,7 +2567,7 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
@@ -2565,7 +2577,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="12" t="s">
         <v>109</v>
       </c>
@@ -2575,7 +2587,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12" t="s">
         <v>110</v>
       </c>
@@ -2585,17 +2597,17 @@
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="2" t="s">
         <v>100</v>
       </c>
@@ -2614,7 +2626,7 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="31" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
@@ -2627,7 +2639,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="6" t="s">
         <v>136</v>
       </c>
@@ -2636,7 +2648,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="32"/>
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -2645,7 +2657,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -2654,7 +2666,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>153</v>
       </c>
@@ -2663,7 +2675,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -2674,7 +2686,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>161</v>
       </c>
@@ -2683,7 +2695,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>162</v>
       </c>
@@ -2692,7 +2704,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>163</v>
       </c>
@@ -2701,7 +2713,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2712,7 +2724,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="34"/>
       <c r="B28" t="s">
         <v>199</v>
       </c>
@@ -2721,7 +2733,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="34"/>
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -2730,7 +2742,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="34"/>
       <c r="B30" t="s">
         <v>201</v>
       </c>
@@ -2739,7 +2751,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -2750,7 +2762,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>236</v>
       </c>
@@ -2759,7 +2771,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="27"/>
       <c r="B33" t="s">
         <v>237</v>
       </c>
@@ -2768,7 +2780,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="27"/>
       <c r="B34" t="s">
         <v>238</v>
       </c>
@@ -2777,7 +2789,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
@@ -2788,7 +2800,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="27"/>
       <c r="B36" t="s">
         <v>263</v>
       </c>
@@ -2797,7 +2809,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>264</v>
       </c>
@@ -2806,7 +2818,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="27"/>
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -2815,7 +2827,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>266</v>
       </c>
@@ -2824,7 +2836,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
@@ -2835,7 +2847,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="27"/>
       <c r="B41" t="s">
         <v>288</v>
       </c>
@@ -2844,7 +2856,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="27"/>
       <c r="B42" t="s">
         <v>289</v>
       </c>
@@ -2853,7 +2865,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
@@ -2864,7 +2876,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="27"/>
       <c r="B44" t="s">
         <v>338</v>
       </c>
@@ -2873,7 +2885,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="27"/>
       <c r="B45" t="s">
         <v>339</v>
       </c>
@@ -2882,7 +2894,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="27"/>
       <c r="B46" t="s">
         <v>377</v>
       </c>
@@ -2891,7 +2903,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="27"/>
       <c r="B47" t="s">
         <v>340</v>
       </c>
@@ -2900,7 +2912,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="27"/>
       <c r="B48" t="s">
         <v>341</v>
       </c>
@@ -2909,7 +2921,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
@@ -2920,7 +2932,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="27"/>
       <c r="B50" t="s">
         <v>385</v>
       </c>
@@ -2929,7 +2941,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="27"/>
       <c r="B51" t="s">
         <v>400</v>
       </c>
@@ -2938,7 +2950,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
@@ -2949,7 +2961,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="27"/>
       <c r="B53" t="s">
         <v>409</v>
       </c>
@@ -2958,7 +2970,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="27"/>
       <c r="B54" t="s">
         <v>410</v>
       </c>
@@ -2967,7 +2979,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="27"/>
       <c r="B55" t="s">
         <v>411</v>
       </c>
@@ -2976,7 +2988,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="27"/>
       <c r="B56" t="s">
         <v>412</v>
       </c>
@@ -2991,10 +3003,10 @@
       <c r="A58" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="27"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="11"/>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
@@ -3019,10 +3031,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3036,8 +3048,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="6" t="s">
         <v>99</v>
       </c>
@@ -3049,8 +3061,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
@@ -3062,8 +3074,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="24" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3077,8 +3089,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="6" t="s">
         <v>114</v>
       </c>
@@ -3090,8 +3102,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
@@ -3103,8 +3115,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="6" t="s">
         <v>116</v>
       </c>
@@ -3116,8 +3128,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
@@ -3129,8 +3141,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="6" t="s">
         <v>16</v>
       </c>
@@ -3142,8 +3154,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="6" t="s">
         <v>17</v>
       </c>
@@ -3155,8 +3167,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
@@ -3168,8 +3180,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
@@ -3181,8 +3193,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
       </c>
@@ -3194,8 +3206,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="24" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3209,8 +3221,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
@@ -3222,8 +3234,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="6" t="s">
         <v>11</v>
       </c>
@@ -3235,8 +3247,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="6" t="s">
         <v>12</v>
       </c>
@@ -3248,7 +3260,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="15" t="s">
         <v>170</v>
       </c>
@@ -3263,10 +3275,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3280,8 +3292,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
@@ -3293,8 +3305,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="6" t="s">
         <v>8</v>
       </c>
@@ -3306,8 +3318,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="24" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3321,8 +3333,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
@@ -3334,8 +3346,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="6" t="s">
         <v>115</v>
       </c>
@@ -3347,8 +3359,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="6" t="s">
         <v>116</v>
       </c>
@@ -3360,8 +3372,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="6" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3385,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="6" t="s">
         <v>22</v>
       </c>
@@ -3386,8 +3398,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
         <v>23</v>
       </c>
@@ -3399,8 +3411,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
-      <c r="B90" s="24"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="6" t="s">
         <v>17</v>
       </c>
@@ -3412,8 +3424,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="6" t="s">
         <v>24</v>
       </c>
@@ -3425,7 +3437,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="15" t="s">
         <v>163</v>
       </c>
@@ -3440,10 +3452,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -3457,8 +3469,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" s="31"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="6" t="s">
         <v>33</v>
       </c>
@@ -3470,8 +3482,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
@@ -3483,8 +3495,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="31" t="s">
+      <c r="A96" s="20"/>
+      <c r="B96" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -3498,8 +3510,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
-      <c r="B97" s="31"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="6" t="s">
         <v>114</v>
       </c>
@@ -3511,8 +3523,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" s="31"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="6" t="s">
         <v>115</v>
       </c>
@@ -3524,8 +3536,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="6" t="s">
         <v>116</v>
       </c>
@@ -3537,8 +3549,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
-      <c r="B100" s="31"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="6" t="s">
         <v>34</v>
       </c>
@@ -3550,8 +3562,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="31"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="6" t="s">
         <v>35</v>
       </c>
@@ -3563,8 +3575,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
-      <c r="B102" s="31"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="6" t="s">
         <v>36</v>
       </c>
@@ -3576,8 +3588,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="6" t="s">
         <v>17</v>
       </c>
@@ -3589,8 +3601,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
-      <c r="B104" s="31"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="6" t="s">
         <v>37</v>
       </c>
@@ -3602,7 +3614,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="8" t="s">
         <v>201</v>
       </c>
@@ -3617,10 +3629,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="19" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3634,8 +3646,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
-      <c r="B107" s="31"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="6" t="s">
         <v>41</v>
       </c>
@@ -3647,8 +3659,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
-      <c r="B108" s="31"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
@@ -3660,7 +3672,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="8" t="s">
         <v>236</v>
       </c>
@@ -3675,8 +3687,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28"/>
-      <c r="B110" s="31" t="s">
+      <c r="A110" s="20"/>
+      <c r="B110" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -3690,8 +3702,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="28"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="6" t="s">
         <v>40</v>
       </c>
@@ -3703,8 +3715,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="31"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="6" t="s">
         <v>42</v>
       </c>
@@ -3716,7 +3728,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="28"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="8" t="s">
         <v>238</v>
       </c>
@@ -3731,7 +3743,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="20" t="s">
         <v>272</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -3748,7 +3760,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="8" t="s">
         <v>263</v>
       </c>
@@ -3763,7 +3775,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="8" t="s">
         <v>264</v>
       </c>
@@ -3778,8 +3790,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
-      <c r="B117" s="31" t="s">
+      <c r="A117" s="20"/>
+      <c r="B117" s="19" t="s">
         <v>265</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -3793,8 +3805,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
-      <c r="B118" s="31"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="6" t="s">
         <v>46</v>
       </c>
@@ -3806,7 +3818,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="28"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="8" t="s">
         <v>266</v>
       </c>
@@ -3821,7 +3833,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="20" t="s">
         <v>293</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3838,8 +3850,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="28"/>
-      <c r="B121" s="29" t="s">
+      <c r="A121" s="20"/>
+      <c r="B121" s="24" t="s">
         <v>288</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -3853,8 +3865,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="28"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="6" t="s">
         <v>49</v>
       </c>
@@ -3866,7 +3878,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="28"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="8" t="s">
         <v>289</v>
       </c>
@@ -3881,10 +3893,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="19" t="s">
         <v>371</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -3898,8 +3910,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="28"/>
-      <c r="B125" s="31"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="6" t="s">
         <v>52</v>
       </c>
@@ -3911,8 +3923,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="28"/>
-      <c r="B126" s="31"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="6" t="s">
         <v>53</v>
       </c>
@@ -3924,8 +3936,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="28"/>
-      <c r="B127" s="31"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="6" t="s">
         <v>54</v>
       </c>
@@ -3937,8 +3949,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="28"/>
-      <c r="B128" s="31" t="s">
+      <c r="A128" s="20"/>
+      <c r="B128" s="19" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -3952,8 +3964,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
-      <c r="B129" s="31"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="6" t="s">
         <v>55</v>
       </c>
@@ -3965,8 +3977,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="28"/>
-      <c r="B130" s="31" t="s">
+      <c r="A130" s="20"/>
+      <c r="B130" s="19" t="s">
         <v>339</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -3980,8 +3992,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="28"/>
-      <c r="B131" s="31"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="6" t="s">
         <v>57</v>
       </c>
@@ -3993,8 +4005,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="28"/>
-      <c r="B132" s="31"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="6" t="s">
         <v>58</v>
       </c>
@@ -4006,8 +4018,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="28"/>
-      <c r="B133" s="31"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="6" t="s">
         <v>59</v>
       </c>
@@ -4019,8 +4031,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="28"/>
-      <c r="B134" s="31"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="6" t="s">
         <v>60</v>
       </c>
@@ -4032,8 +4044,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="28"/>
-      <c r="B135" s="31"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="6" t="s">
         <v>61</v>
       </c>
@@ -4045,8 +4057,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="28"/>
-      <c r="B136" s="31"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="6" t="s">
         <v>62</v>
       </c>
@@ -4058,8 +4070,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="28"/>
-      <c r="B137" s="31"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="6" t="s">
         <v>63</v>
       </c>
@@ -4071,8 +4083,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
-      <c r="B138" s="31" t="s">
+      <c r="A138" s="20"/>
+      <c r="B138" s="19" t="s">
         <v>377</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4086,8 +4098,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="28"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="6" t="s">
         <v>65</v>
       </c>
@@ -4099,8 +4111,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="28"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="6" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4124,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="28"/>
-      <c r="B141" s="31"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="6" t="s">
         <v>67</v>
       </c>
@@ -4125,8 +4137,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="28"/>
-      <c r="B142" s="31"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="6" t="s">
         <v>68</v>
       </c>
@@ -4138,8 +4150,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="28"/>
-      <c r="B143" s="31"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="6" t="s">
         <v>69</v>
       </c>
@@ -4151,8 +4163,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="28"/>
-      <c r="B144" s="31" t="s">
+      <c r="A144" s="20"/>
+      <c r="B144" s="19" t="s">
         <v>340</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -4166,8 +4178,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="28"/>
-      <c r="B145" s="31"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="6" t="s">
         <v>71</v>
       </c>
@@ -4179,8 +4191,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="28"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="6" t="s">
         <v>72</v>
       </c>
@@ -4192,8 +4204,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="28"/>
-      <c r="B147" s="31"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="6" t="s">
         <v>73</v>
       </c>
@@ -4205,8 +4217,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="28"/>
-      <c r="B148" s="31"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="6" t="s">
         <v>74</v>
       </c>
@@ -4218,8 +4230,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="28"/>
-      <c r="B149" s="31"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="6" t="s">
         <v>75</v>
       </c>
@@ -4231,8 +4243,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="28"/>
-      <c r="B150" s="31"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="6" t="s">
         <v>76</v>
       </c>
@@ -4244,8 +4256,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="28"/>
-      <c r="B151" s="31"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="6" t="s">
         <v>77</v>
       </c>
@@ -4257,8 +4269,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="28"/>
-      <c r="B152" s="31"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="6" t="s">
         <v>78</v>
       </c>
@@ -4270,8 +4282,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="28"/>
-      <c r="B153" s="31"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="6" t="s">
         <v>79</v>
       </c>
@@ -4283,8 +4295,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="28"/>
-      <c r="B154" s="31"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="6" t="s">
         <v>80</v>
       </c>
@@ -4296,8 +4308,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="28"/>
-      <c r="B155" s="31"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="6" t="s">
         <v>81</v>
       </c>
@@ -4309,8 +4321,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="28"/>
-      <c r="B156" s="31"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="6" t="s">
         <v>82</v>
       </c>
@@ -4322,8 +4334,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="28"/>
-      <c r="B157" s="31"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="6" t="s">
         <v>83</v>
       </c>
@@ -4335,7 +4347,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="28"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="8" t="s">
         <v>341</v>
       </c>
@@ -4350,10 +4362,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="B159" s="29" t="s">
+      <c r="B159" s="24" t="s">
         <v>393</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -4367,8 +4379,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="28"/>
-      <c r="B160" s="36"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4380,8 +4392,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="28"/>
-      <c r="B161" s="35"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="6" t="s">
         <v>433</v>
       </c>
@@ -4393,55 +4405,55 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="28"/>
-      <c r="B162" s="31" t="s">
+      <c r="A162" s="20"/>
+      <c r="B162" s="19" t="s">
         <v>385</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D162" s="34" t="s">
+      <c r="D162" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="E162" s="33" t="s">
+      <c r="E162" s="21" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="28"/>
-      <c r="B163" s="31"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D163" s="35"/>
-      <c r="E163" s="33"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="21"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="28"/>
-      <c r="B164" s="31" t="s">
+      <c r="A164" s="20"/>
+      <c r="B164" s="19" t="s">
         <v>398</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="21" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="28"/>
-      <c r="B165" s="31"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D165" s="35"/>
-      <c r="E165" s="33"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B166" s="8" t="s">
@@ -4458,7 +4470,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="28"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="8" t="s">
         <v>409</v>
       </c>
@@ -4473,8 +4485,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="28"/>
-      <c r="B168" s="31" t="s">
+      <c r="A168" s="20"/>
+      <c r="B168" s="19" t="s">
         <v>410</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4488,8 +4500,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="28"/>
-      <c r="B169" s="31"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="6" t="s">
         <v>404</v>
       </c>
@@ -4501,8 +4513,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="28"/>
-      <c r="B170" s="31" t="s">
+      <c r="A170" s="20"/>
+      <c r="B170" s="19" t="s">
         <v>411</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -4516,8 +4528,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="28"/>
-      <c r="B171" s="31"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="6" t="s">
         <v>406</v>
       </c>
@@ -4529,7 +4541,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="28"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="8" t="s">
         <v>412</v>
       </c>
@@ -4545,36 +4557,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="A166:A172"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A124:A158"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B137"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B157"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A93:A105"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A62:A79"/>
     <mergeCell ref="A18:A22"/>
@@ -4591,6 +4573,36 @@
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="A124:A158"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B137"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A166:A172"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="B159:B161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4603,7 +4615,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4631,10 +4643,10 @@
     </row>
     <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4642,7 +4654,7 @@
         <v>436</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4650,7 +4662,7 @@
         <v>437</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4658,7 +4670,7 @@
         <v>438</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4666,7 +4678,7 @@
         <v>439</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
@@ -4676,7 +4688,7 @@
     </row>
     <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>0</v>
@@ -4687,13 +4699,13 @@
     </row>
     <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>470</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
